--- a/Outputs/5. Budget constrained/Output Files/1750000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/1750000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289549.639719027</v>
+        <v>2262607.561078962</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>61.26526235734959</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.60408762095418</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>196.532178090775</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>59.71215406761458</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>134.4381630879904</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>101.2898147863553</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7533362697516</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>162.2302874358897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.44029960352506</v>
       </c>
     </row>
     <row r="20">
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.289814786355</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>132.5458306592377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>177.7059714321712</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>87.65220976162009</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.4433890341031</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.8159420274844</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>39.72583251028705</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>19.13151019008097</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169287</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373635</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.26498762696</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2304.202100283389</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.433445013275</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1577.967686752195</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1187.828354776384</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>667.7988452409105</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>667.7988452409105</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>667.7988452409105</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>667.7988452409105</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>667.7988452409105</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>667.7988452409105</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1404.597857825387</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1035.635340884975</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>677.3696422782245</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,10 +5051,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>192.33306393444</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>192.33306393444</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>874.0714973557097</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>584.654327318749</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X13" t="n">
-        <v>356.6647764207315</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y13" t="n">
-        <v>356.6647764207315</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500522</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500522</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.4504516500522</v>
+        <v>199.5300356889277</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5519,22 +5519,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="V19" t="n">
-        <v>622.2132292685493</v>
+        <v>620.2426249169055</v>
       </c>
       <c r="W19" t="n">
-        <v>622.2132292685493</v>
+        <v>330.8254548799448</v>
       </c>
       <c r="X19" t="n">
-        <v>394.223678370532</v>
+        <v>330.8254548799448</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.223678370532</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.7003690904324</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="C22" t="n">
-        <v>562.7003690904324</v>
+        <v>199.5300356889272</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>852.117539127393</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>562.7003690904324</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X22" t="n">
-        <v>562.7003690904324</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.7003690904324</v>
+        <v>199.5300356889272</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.738453580939</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2520.760934363148</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655733</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286127</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X25" t="n">
-        <v>486.1849922839953</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,28 +6212,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6245,10 +6245,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383385</v>
+        <v>545.1765965867976</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383385</v>
+        <v>545.1765965867976</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383385</v>
+        <v>395.0599571744618</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383385</v>
+        <v>395.0599571744618</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383385</v>
+        <v>248.1700096765515</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1262.774559011158</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1262.774559011158</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>973.6459202247161</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>718.9614320188292</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>429.5442619818686</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X28" t="n">
-        <v>429.5442619818686</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383385</v>
+        <v>726.8250614170373</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.3668169895377</v>
+        <v>439.5324299542176</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430017</v>
+        <v>326.3571123076814</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430017</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>137.3441950060304</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1861.487067131513</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1693.462517202389</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1460.094743697318</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1261.171120772802</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1027.514816017212</v>
+        <v>902.6804289818924</v>
       </c>
       <c r="X31" t="n">
-        <v>855.2861304005658</v>
+        <v>730.4517433652459</v>
       </c>
       <c r="Y31" t="n">
-        <v>690.2544165384065</v>
+        <v>565.4200295030865</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6920,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7111,13 +7111,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,28 +7181,28 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,19 +7327,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,64 +7397,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>80.50021372615117</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.100663089359941</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>444.488938686166</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>113.6026921294544</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735871</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.26914989715651</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.6994802358376</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>78.54216539558196</v>
       </c>
       <c r="C16" t="n">
-        <v>121.4934848288762</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>89.90735588793825</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.1443537485697</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.32565823185739</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>119.5918126645903</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>48.00368395686596</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>130.9324435904747</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>17.05017942927452</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>74.10486795611885</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632542793</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.5860431649652</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="E2" t="n">
+        <v>547440.6836327929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="K2" t="n">
+        <v>569550.9922833786</v>
+      </c>
+      <c r="L2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="M2" t="n">
+        <v>574729.2389049979</v>
+      </c>
+      <c r="N2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="O2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="P2" t="n">
         <v>574729.2389049983</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
-      <c r="E2" t="n">
-        <v>547440.6836327927</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547440.6836327927</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>569550.9922833788</v>
-      </c>
-      <c r="L2" t="n">
-        <v>574729.2389049975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>574729.2389049985</v>
-      </c>
-      <c r="N2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574729.2389049984</v>
-      </c>
-      <c r="P2" t="n">
-        <v>574729.2389049976</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="C4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912357</v>
       </c>
       <c r="D4" t="n">
-        <v>163259.7114202398</v>
+        <v>166707.1609912358</v>
       </c>
       <c r="E4" t="n">
-        <v>20264.66659570476</v>
+        <v>23039.20996089019</v>
       </c>
       <c r="F4" t="n">
-        <v>20264.66659570477</v>
+        <v>23039.20996089018</v>
       </c>
       <c r="G4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.2099608902</v>
       </c>
       <c r="H4" t="n">
-        <v>20264.66659570481</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="I4" t="n">
-        <v>20264.66659570481</v>
+        <v>23039.20996089021</v>
       </c>
       <c r="J4" t="n">
-        <v>20264.66659570482</v>
+        <v>23039.20996089022</v>
       </c>
       <c r="K4" t="n">
-        <v>38429.28910990137</v>
+        <v>41203.83247508675</v>
       </c>
       <c r="L4" t="n">
-        <v>42683.45383702529</v>
+        <v>45457.99720221069</v>
       </c>
       <c r="M4" t="n">
-        <v>42683.45383702534</v>
+        <v>45457.99720221069</v>
       </c>
       <c r="N4" t="n">
-        <v>42683.45383702536</v>
+        <v>45457.9972022107</v>
       </c>
       <c r="O4" t="n">
-        <v>42683.4538370253</v>
+        <v>45457.99720221067</v>
       </c>
       <c r="P4" t="n">
-        <v>42683.45383702531</v>
+        <v>45457.9972022107</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261357.4297931947</v>
+        <v>-264804.8793641907</v>
       </c>
       <c r="C6" t="n">
-        <v>328610.4494213491</v>
+        <v>325162.9998503537</v>
       </c>
       <c r="D6" t="n">
-        <v>328610.4494213496</v>
+        <v>325162.9998503535</v>
       </c>
       <c r="E6" t="n">
-        <v>-89971.34538852499</v>
+        <v>-92843.34787968235</v>
       </c>
       <c r="F6" t="n">
-        <v>435188.6910883713</v>
+        <v>432316.6885972131</v>
       </c>
       <c r="G6" t="n">
-        <v>435188.6910883711</v>
+        <v>432316.6885972134</v>
       </c>
       <c r="H6" t="n">
-        <v>435188.6910883711</v>
+        <v>432316.6885972135</v>
       </c>
       <c r="I6" t="n">
-        <v>435188.6910883711</v>
+        <v>432316.6885972134</v>
       </c>
       <c r="J6" t="n">
-        <v>258765.4718957778</v>
+        <v>255893.4694046205</v>
       </c>
       <c r="K6" t="n">
-        <v>390330.889340409</v>
+        <v>387537.8522372891</v>
       </c>
       <c r="L6" t="n">
-        <v>423987.77244708</v>
+        <v>421213.2290818952</v>
       </c>
       <c r="M6" t="n">
-        <v>299529.6640141106</v>
+        <v>296755.1206489246</v>
       </c>
       <c r="N6" t="n">
-        <v>434330.6792479479</v>
+        <v>431556.135882762</v>
       </c>
       <c r="O6" t="n">
-        <v>434330.6792479477</v>
+        <v>431556.1358827625</v>
       </c>
       <c r="P6" t="n">
-        <v>390168.0739451011</v>
+        <v>387393.5305799166</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,31 +26747,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>189.9589051509397</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>116.0611043592037</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855544</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887357</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3981919814868</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>192.4254892562134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>168.5132465112254</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>583.2963240761462</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.11369587443404</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>724.9245949685507</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586612</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
